--- a/demo-data/PersonFriedrichKarlStröher.xlsx
+++ b/demo-data/PersonFriedrichKarlStröher.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">Objekt-ID</t>
+    <t xml:space="preserve">ObjektID</t>
   </si>
   <si>
     <t xml:space="preserve">Object2</t>
@@ -129,7 +129,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -158,6 +158,12 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Mono;Courier New;DejaVu Sans Mono;Lucida Sans Typewriter"/>
+      <family val="3"/>
     </font>
     <font>
       <u val="single"/>
@@ -210,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,6 +230,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -424,7 +434,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,7 +452,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -493,7 +503,7 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -501,7 +511,7 @@
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -509,7 +519,7 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -541,7 +551,7 @@
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -549,7 +559,7 @@
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -611,7 +621,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2"/>
